--- a/medicine/Psychotrope/Ruppaner-Brauerei_Gebrüder_Ruppaner/Ruppaner-Brauerei_Gebrüder_Ruppaner.xlsx
+++ b/medicine/Psychotrope/Ruppaner-Brauerei_Gebrüder_Ruppaner/Ruppaner-Brauerei_Gebrüder_Ruppaner.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Ruppaner-Brauerei_Gebr%C3%BCder_Ruppaner</t>
+          <t>Ruppaner-Brauerei_Gebrüder_Ruppaner</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 La Ruppaner-Brauerei Gebrüder Ruppaner est une brasserie à Constance (Allemagne).
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Ruppaner-Brauerei_Gebr%C3%BCder_Ruppaner</t>
+          <t>Ruppaner-Brauerei_Gebrüder_Ruppaner</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,10 +524,12 @@
           <t>Histoire</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">En 1795, le vogt palatin Nikolaus Matt fonde la brasserie sous le nom de Bierbrauerei zur Sonne. En 1872, la famille de brasseurs Ruppaner reprend l'usine de production et le restaurant. À la fin des années 1980, la direction est reprise par Andrea, la fille de Karl-Bernhard Ruppaner et de Hans Ruppaner, et son gendre Wolfgang Scheidtweiler. La brasserie Ruppaner en est maintenant à sa quatrième génération en tant que brasserie privée de taille moyenne.
-Elle est membre de la société coopérative Brauring[1].
+Elle est membre de la société coopérative Brauring.
 </t>
         </is>
       </c>
@@ -526,7 +540,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Ruppaner-Brauerei_Gebr%C3%BCder_Ruppaner</t>
+          <t>Ruppaner-Brauerei_Gebrüder_Ruppaner</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -544,7 +558,9 @@
           <t>Production</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Bio-Schimmele : pils naturellement trouble
 Bodensee Radler : bière mélangée avec de la limonade
